--- a/result.xlsx
+++ b/result.xlsx
@@ -520,11 +520,11 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
@@ -532,13 +532,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,19 +598,19 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
@@ -628,11 +628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="280212992"/>
-        <c:axId val="280214528"/>
+        <c:axId val="288839552"/>
+        <c:axId val="288841088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280212992"/>
+        <c:axId val="288839552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280214528"/>
+        <c:crossAx val="288841088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -649,7 +649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280214528"/>
+        <c:axId val="288841088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280212992"/>
+        <c:crossAx val="288839552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -696,11 +696,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -720,6 +716,14 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -779,7 +783,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -808,6 +812,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -837,11 +849,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -861,6 +869,18 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -926,7 +946,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
@@ -949,6 +969,18 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1204,10 +1236,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,10 +1287,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -1279,11 +1311,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="280188416"/>
-        <c:axId val="280189952"/>
+        <c:axId val="289198080"/>
+        <c:axId val="289199616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280188416"/>
+        <c:axId val="289198080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280189952"/>
+        <c:crossAx val="289199616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1300,7 +1332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280189952"/>
+        <c:axId val="289199616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280188416"/>
+        <c:crossAx val="289198080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1748,7 +1780,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1779,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1799,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1822,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1842,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1879,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1896,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1916,7 +1948,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1936,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1959,7 +1991,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1976,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1999,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2054,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2115,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <v>2</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -628,11 +628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288839552"/>
-        <c:axId val="288841088"/>
+        <c:axId val="229390208"/>
+        <c:axId val="229391744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288839552"/>
+        <c:axId val="229390208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288841088"/>
+        <c:crossAx val="229391744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -649,7 +649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288841088"/>
+        <c:axId val="229391744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288839552"/>
+        <c:crossAx val="229390208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -696,103 +696,293 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$17</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>最も現実感を感じた要素</c:v>
+                  <c:v>全く感じなかった</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$16:$I$16</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>VR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>環境音</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ペットが自由に動き回る動作</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ペットがユーザの方に来る動作</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ペットが顔の向きを変える動作</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>尻尾を振る動作</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>背景（木、草）</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>その他</c:v>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>コントローラの振動によってペットとの接触が分かりやすくなったか</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>実際にその場にいるように感じることができたか</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ペットを本物のように感じたか</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ペットが実体を持っているように感じたか</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$I$17</c:f>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>あまり感じなかった</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>コントローラの振動によってペットとの接触が分かりやすくなったか</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>実際にその場にいるように感じることができたか</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ペットを本物のように感じたか</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ペットが実体を持っているように感じたか</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>どちらでもない</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>コントローラの振動によってペットとの接触が分かりやすくなったか</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>実際にその場にいるように感じることができたか</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ペットを本物のように感じたか</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ペットが実体を持っているように感じたか</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>だいたい感じた</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>コントローラの振動によってペットとの接触が分かりやすくなったか</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>実際にその場にいるように感じることができたか</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ペットを本物のように感じたか</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ペットが実体を持っているように感じたか</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>とてもよく感じた</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>コントローラの振動によってペットとの接触が分かりやすくなったか</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>実際にその場にいるように感じることができたか</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ペットを本物のように感じたか</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ペットが実体を持っているように感じたか</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,23 +993,49 @@
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="229639296"/>
+        <c:axId val="229640832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="229639296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="229640832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="229640832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="229639296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -842,10 +1058,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="110"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="10"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -868,17 +1084,53 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="4"/>
               <c:delete val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
               <c:delete val="1"/>
             </c:dLbl>
             <c:showLegendKey val="0"/>
@@ -895,25 +1147,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ペットが顔の向きを変える動作</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ペットが自由に動き回る動作</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>背景（木、草）</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ペットがユーザの方に来る動作</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>VR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>環境音</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>ペットが自由に動き回る動作</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ペットがユーザの方に来る動作</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ペットが顔の向きを変える動作</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>尻尾を振る動作</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>背景（木、草）</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>その他</c:v>
@@ -928,25 +1180,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
@@ -970,15 +1222,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
+        <c:idx val="4"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout/>
@@ -1003,300 +1255,146 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="110"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="10"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>全く感じなかった</c:v>
+                  <c:v>最も現実感を感じた要素</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>コントローラの振動によってペットとの接触が分かりやすくなったか</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>実際にその場にいるように感じることができたか</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ペットを本物のように感じたか</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ペットが実体を持っているように感じたか</c:v>
+              <c:f>Sheet1!$B$16:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>VR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ペットがユーザの方に来る動作</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ペットが顔の向きを変える動作</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>背景（木、草）</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>環境音</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ペットが自由に動き回る動作</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>尻尾を振る動作</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>その他</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:f>Sheet1!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>あまり感じなかった</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>コントローラの振動によってペットとの接触が分かりやすくなったか</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>実際にその場にいるように感じることができたか</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ペットを本物のように感じたか</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ペットが実体を持っているように感じたか</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>どちらでもない</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>コントローラの振動によってペットとの接触が分かりやすくなったか</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>実際にその場にいるように感じることができたか</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ペットを本物のように感じたか</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ペットが実体を持っているように感じたか</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>だいたい感じた</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>コントローラの振動によってペットとの接触が分かりやすくなったか</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>実際にその場にいるように感じることができたか</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ペットを本物のように感じたか</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ペットが実体を持っているように感じたか</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>とてもよく感じた</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>コントローラの振動によってペットとの接触が分かりやすくなったか</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>実際にその場にいるように感じることができたか</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ペットを本物のように感じたか</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ペットが実体を持っているように感じたか</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,46 +1405,12 @@
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="289198080"/>
-        <c:axId val="289199616"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="289198080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289199616"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="289199616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289198080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1399,20 +1463,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="グラフ 14"/>
+        <xdr:cNvPr id="17" name="グラフ 16"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1429,20 +1493,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="グラフ 15"/>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1459,20 +1523,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="グラフ 16"/>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1780,7 +1844,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2048,22 +2112,22 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
@@ -2077,48 +2141,48 @@
         <v>4</v>
       </c>
       <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
+      <c r="I17">
         <v>0</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
         <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
@@ -2129,10 +2193,10 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -2141,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>2</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>ペットが実体を持っているように感じたか</t>
     <phoneticPr fontId="1"/>
@@ -50,41 +50,6 @@
   </si>
   <si>
     <t>背景（木、草）部分</t>
-  </si>
-  <si>
-    <t>とてもよく感じた</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>だいたい感じた</t>
-    <rPh sb="4" eb="5">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どちらでもない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あまり感じなかった</t>
-    <rPh sb="3" eb="4">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全く感じなかった</t>
-    <rPh sb="0" eb="1">
-      <t>マッタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>最も現実感を感じた要素</t>
@@ -150,6 +115,32 @@
   </si>
   <si>
     <t>その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5（とてもよく感じた/とても分かりやすかった）</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1（全く感じなかった/全く分からなかった）</t>
+    <rPh sb="2" eb="3">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -253,7 +244,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>全く感じなかった</c:v>
+                  <c:v>1（全く感じなかった/全く分からなかった）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -328,7 +319,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>あまり感じなかった</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -403,7 +394,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>どちらでもない</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -478,7 +469,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>だいたい感じた</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -553,7 +544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>とてもよく感じた</c:v>
+                  <c:v>5（とてもよく感じた/とても分かりやすかった）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -628,11 +619,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="229390208"/>
-        <c:axId val="229391744"/>
+        <c:axId val="257185664"/>
+        <c:axId val="257187200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229390208"/>
+        <c:axId val="257185664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229391744"/>
+        <c:crossAx val="257187200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -649,7 +640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229391744"/>
+        <c:axId val="257187200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229390208"/>
+        <c:crossAx val="257185664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -712,7 +703,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>全く感じなかった</c:v>
+                  <c:v>1（全く感じなかった/全く分からなかった）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -769,7 +760,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>あまり感じなかった</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -826,7 +817,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>どちらでもない</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -883,7 +874,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>だいたい感じた</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -940,7 +931,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>とてもよく感じた</c:v>
+                  <c:v>5（とてもよく感じた/とても分かりやすかった）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -997,11 +988,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="229639296"/>
-        <c:axId val="229640832"/>
+        <c:axId val="257034496"/>
+        <c:axId val="257036288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229639296"/>
+        <c:axId val="257034496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229640832"/>
+        <c:crossAx val="257036288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +1009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229640832"/>
+        <c:axId val="257036288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229639296"/>
+        <c:crossAx val="257034496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1058,10 +1049,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="110"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="10"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1255,10 +1246,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="110"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="10"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1281,6 +1272,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
@@ -1305,6 +1305,15 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -1844,7 +1853,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1855,19 +1864,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1952,19 +1961,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2109,33 +2118,33 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2164,33 +2173,33 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
         <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>4</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -619,11 +619,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="257185664"/>
-        <c:axId val="257187200"/>
+        <c:axId val="265303936"/>
+        <c:axId val="265305472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257185664"/>
+        <c:axId val="265303936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257187200"/>
+        <c:crossAx val="265305472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257187200"/>
+        <c:axId val="265305472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,7 +651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257185664"/>
+        <c:crossAx val="265303936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -665,10 +665,17 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -988,11 +995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="257034496"/>
-        <c:axId val="257036288"/>
+        <c:axId val="138356992"/>
+        <c:axId val="138358784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257034496"/>
+        <c:axId val="138356992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257036288"/>
+        <c:crossAx val="138358784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1009,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257036288"/>
+        <c:axId val="138358784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257034496"/>
+        <c:crossAx val="138356992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,10 +1041,17 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1231,10 +1245,17 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1430,10 +1451,17 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1853,7 +1881,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2229,7 +2257,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/result.xlsx
+++ b/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>ペットが実体を持っているように感じたか</t>
     <phoneticPr fontId="1"/>
@@ -84,33 +84,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>環境音</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペットがユーザの方に来る動作</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペットが顔の向きを変える動作</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>尻尾を振る動作</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>背景（木、草）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -143,12 +117,69 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>B-1：VR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-4：ペットがユーザの方に来る動作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-5：ペットが顔の向きを変える動作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-7：背景（木、草）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-2：環境音</t>
+    <rPh sb="4" eb="6">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：ペットが自由に動き回る動作</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾を振る動作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-7：背景（木、草）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-1：HMDの使用</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +200,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1127,6 +1165,28 @@
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:t>27%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
             </c:dLbl>
@@ -1152,22 +1212,22 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>ペットが顔の向きを変える動作</c:v>
+                  <c:v>B-5：ペットが顔の向きを変える動作</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ペットが自由に動き回る動作</c:v>
+                  <c:v>B-3：ペットが自由に動き回る動作</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>背景（木、草）</c:v>
+                  <c:v>B-7：背景（木、草）</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ペットがユーザの方に来る動作</c:v>
+                  <c:v>B-4：ペットがユーザの方に来る動作</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VR</c:v>
+                  <c:v>B-1：VR</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>環境音</c:v>
+                  <c:v>B-2：環境音</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>尻尾を振る動作</c:v>
@@ -1257,6 +1317,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1370,22 +1431,22 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>VR</c:v>
+                  <c:v>B-1：HMDの使用</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ペットがユーザの方に来る動作</c:v>
+                  <c:v>B-4：ペットがユーザの方に来る動作</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ペットが顔の向きを変える動作</c:v>
+                  <c:v>B-5：ペットが顔の向きを変える動作</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>背景（木、草）</c:v>
+                  <c:v>B-7：背景（木、草）</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>環境音</c:v>
+                  <c:v>B-2：環境音</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ペットが自由に動き回る動作</c:v>
+                  <c:v>B-3：ペットが自由に動き回る動作</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>尻尾を振る動作</c:v>
@@ -1463,6 +1524,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1561,13 +1623,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
@@ -1589,6 +1651,1084 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37778</cdr:x>
+      <cdr:y>0.31713</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48333</cdr:x>
+      <cdr:y>0.4213</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1727200" y="869950"/>
+          <a:ext cx="482600" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>B-5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15903</cdr:x>
+      <cdr:y>0.52546</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26667</cdr:x>
+      <cdr:y>0.62963</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="727075" y="1441450"/>
+          <a:ext cx="492125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>B-7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.21296</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09583</cdr:x>
+      <cdr:y>0.31713</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="584200"/>
+          <a:ext cx="438150" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>B-4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36319</cdr:x>
+      <cdr:y>0.60185</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4625</cdr:x>
+      <cdr:y>0.70602</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1660525" y="1651000"/>
+          <a:ext cx="454025" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>B-3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0875</cdr:x>
+      <cdr:y>0.27604</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.13958</cdr:x>
+      <cdr:y>0.32465</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="400050" y="757238"/>
+          <a:ext cx="238125" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12917</cdr:x>
+      <cdr:y>0.16782</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.1875</cdr:x>
+      <cdr:y>0.22049</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="590550" y="460375"/>
+          <a:ext cx="266700" cy="144463"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2375</cdr:x>
+      <cdr:y>0.09549</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.275</cdr:x>
+      <cdr:y>0.15451</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1085850" y="261938"/>
+          <a:ext cx="171450" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38125</cdr:x>
+      <cdr:y>0.34201</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.49583</cdr:x>
+      <cdr:y>0.44618</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1743075" y="938213"/>
+          <a:ext cx="523875" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>B-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37569</cdr:x>
+      <cdr:y>0.55324</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48542</cdr:x>
+      <cdr:y>0.65741</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1717675" y="1517650"/>
+          <a:ext cx="501650" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>B-4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22778</cdr:x>
+      <cdr:y>0.61921</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.3375</cdr:x>
+      <cdr:y>0.72338</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1041400" y="1698625"/>
+          <a:ext cx="501650" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>B-5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15278</cdr:x>
+      <cdr:y>0.42477</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26875</cdr:x>
+      <cdr:y>0.52894</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="698500" y="1165225"/>
+          <a:ext cx="530225" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>B-7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06736</cdr:x>
+      <cdr:y>0.08102</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16875</cdr:x>
+      <cdr:y>0.18519</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="307975" y="222250"/>
+          <a:ext cx="463550" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>B-2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19028</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29583</cdr:x>
+      <cdr:y>0.10417</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="869950" y="0"/>
+          <a:ext cx="482600" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>B-3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1880,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1892,7 +3032,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>4</v>
@@ -1904,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1989,7 +3129,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2001,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2146,28 +3286,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
         <v>14</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -2201,28 +3341,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
       <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2257,7 +3397,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
